--- a/biology/Botanique/Scabiosa_cinerea/Scabiosa_cinerea.xlsx
+++ b/biology/Botanique/Scabiosa_cinerea/Scabiosa_cinerea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scabiosa cinerea, la Scabieuse cendrée, est une espèce de plantes herbacées méditerranéenne.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Scabiosa leucophylla Borbás
 Scabiosa pyrenaica auct.</t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrénées, Corbières.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">600 à 2 200 m d'altitude. Pelouses xérophiles, lapiaz et éboulis sur calcaire.
 </t>
@@ -604,9 +622,11 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (1 septembre 2021)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (1 septembre 2021) :
 Scabiosa cinerea subsp. hladnikiana (Host) Jasiewicz</t>
         </is>
       </c>
